--- a/biology/Botanique/Begonia_biserrata/Begonia_biserrata.xlsx
+++ b/biology/Botanique/Begonia_biserrata/Begonia_biserrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia biserrata est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique latine. L'espèce fait partie de la section Quadriperigonia. Elle a été décrite en 1847 par John Lindley (1799-1865). L'épithète spécifique biserrata signifie « à feuilles en dents de scie »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia biserrata est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique latine. L'espèce fait partie de la section Quadriperigonia. Elle a été décrite en 1847 par John Lindley (1799-1865). L'épithète spécifique biserrata signifie « à feuilles en dents de scie ».
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Salvador ; Guatemala ; Honduras ; Mexique[3]. Dans ce dernier pays elle est présente au Chiapas, dans le Colima, le Durango, le Guerrero, le Jalisco, l'Etat de Mexico, le Michoacan, le Morelos, le Nayarit, le Oaxaca, l'Etat de Puebla, le Sinaloa et le Zacatecas[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Salvador ; Guatemala ; Honduras ; Mexique. Dans ce dernier pays elle est présente au Chiapas, dans le Colima, le Durango, le Guerrero, le Jalisco, l'Etat de Mexico, le Michoacan, le Morelos, le Nayarit, le Oaxaca, l'Etat de Puebla, le Sinaloa et le Zacatecas.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (6 février 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia biserrata var. biserrata
 variété Begonia biserrata var. glandulosa L.B. Sm. &amp; B.G. Schub.</t>
         </is>
